--- a/external_datasets/pmkb/pmkb_interpretations.xlsx
+++ b/external_datasets/pmkb/pmkb_interpretations.xlsx
@@ -10,6 +10,9 @@
   <sheets>
     <sheet name="Interpretations" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Interpretations!$A$1:$G$554</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -2144,6 +2147,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Greulich. The Genomics of Lung Adenocarcinoma: Opportunities for Targeted Therapies. </t>
     </r>
@@ -2152,6 +2156,7 @@
         <sz val="10"/>
         <rFont val="FreeSans"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">﻿</t>
     </r>
@@ -2160,6 +2165,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Genes &amp; Cancer 1(12) 1200–1210</t>
     </r>
@@ -7355,6 +7361,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -7381,6 +7388,7 @@
       <sz val="10"/>
       <name val="FreeSans"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -7450,9 +7458,13 @@
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7463,18 +7475,18 @@
   <dimension ref="A1:AA554"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="33.8826530612245"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="56.4285714285714"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.80612244897959"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="112.989795918367"/>
-    <col collapsed="false" hidden="false" max="27" min="7" style="0" width="33.8826530612245"/>
-    <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.8775510204082"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="33.4795918367347"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="55.75"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.66836734693878"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="111.775510204082"/>
+    <col collapsed="false" hidden="false" max="27" min="7" style="0" width="33.4795918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="9.58673469387755"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24228,7 +24240,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="true"/>
+  <autoFilter ref="A1:G554"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -24236,5 +24248,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>